--- a/YWC Capstone Logbook.xlsx
+++ b/YWC Capstone Logbook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numay\Desktop\School Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\numay\Desktop\School Stuff\Capstone Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC078CB-254E-4499-AF46-29EBEEA28559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD7DBA2-0CCC-4D90-9871-85BD19B177D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{CB158B1F-9BA9-4E34-88E2-39DD8315DF62}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Week</t>
   </si>
@@ -82,6 +82,51 @@
   </si>
   <si>
     <t>Continue working on gaming mechanics and animations.</t>
+  </si>
+  <si>
+    <t>I focused a bit more on the design of my code this past weekend. I found mp3 files of notes that I can use for my music game, but I'm worried about copyright documentation, so I may just create my own mp3 files by recording myself on the clarinet or piano. I've also started storyboarding so I know when to present animations during a lesson, how long they'll stay on screen, and how often they will move. I have however created a few bare classes in android studio and got the application running. This weekend I hope to shift my focus into mainly coding.  At this moment there are no major changes.</t>
+  </si>
+  <si>
+    <t>I've been working on the code for the application outside of Android Studio using mainly Java IntelliJ. My main focus was adding an File I/O method or class to read a text file for the lessons. The quiz game section of code is going well, and I don't see too many obstacles adding it to the application. For the rest of the week, I will work on the Intermediate Milestone which I think will best be presented using the android emulator and other software on my computer, but I am going to try and download an APK file onto a device.  Also I'm connecting the music files for the music game application buttons using XML. Still no major changes to project.</t>
+  </si>
+  <si>
+    <t>This weekend I worked on using my Java code as guide to creating the classes needed in Android Studio. While working I reorganized my classes, which means I will have to update my class diagram. There were a few obstacles, but I was still able to implement the very basics on the application which still gives me plenty of time to finish my Capstone if I reduce the amount of time I dedicated to testing. I will present my Intermediate Milestone this  week and continue fixing my code.</t>
+  </si>
+  <si>
+    <t>Last week I've been adding the lesson plans and quiz questions into the application, and testing if the animations match up for when the information is presented. For the rest of the week and probably the week after I will be fixing the music game elements so that the music matches the commands.</t>
+  </si>
+  <si>
+    <t>I made a good amount of progress on the lesson plans and animations. I'm dealing with a few issues with the music game, but my backup plan is to just make the game a little bit simpler. I've also began download testing on my old android phone and tablet. For the rest of the time left, I want to do a lot of code cleaning and resizing of images. </t>
+  </si>
+  <si>
+    <t>Lesson and Code Design</t>
+  </si>
+  <si>
+    <t>Heavy Coding into Android Studio</t>
+  </si>
+  <si>
+    <t>LargeText Integration and Quiz Code; Intermediate Milestone Preparation</t>
+  </si>
+  <si>
+    <t>Continue Android Studio code integration</t>
+  </si>
+  <si>
+    <t>Android Studio Code Integration</t>
+  </si>
+  <si>
+    <t>Update Class Diagram; Adjusting Animations; Continue Android Studio Integration</t>
+  </si>
+  <si>
+    <t>Music Game code</t>
+  </si>
+  <si>
+    <t>Music game code; Proofreading and Editing lesson and quiz code.</t>
+  </si>
+  <si>
+    <t>Music Game code; Testing on virtual and real devices.</t>
+  </si>
+  <si>
+    <t>Code Cleaning; Preparation for Capstone Submission</t>
   </si>
 </sst>
 </file>
@@ -480,7 +525,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,40 +613,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
